--- a/results/input_sweep_r17/h2000_M0.25_R1250km_PL1500kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1250km_PL1500kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.63949607746554</v>
+        <v>89.13132818974026</v>
       </c>
       <c r="F2" t="n">
-        <v>89.63949607746554</v>
+        <v>89.13132818974026</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>179.2789921549311</v>
+        <v>178.2626563794805</v>
       </c>
       <c r="F3" t="n">
-        <v>179.2789921549311</v>
+        <v>178.2626563794805</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1737.399523564489</v>
+        <v>1727.549971635728</v>
       </c>
       <c r="F4" t="n">
-        <v>1305.891126977733</v>
+        <v>1298.48927962405</v>
       </c>
       <c r="G4" t="n">
-        <v>431.5083965867558</v>
+        <v>429.0606920116784</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1792.789921549311</v>
+        <v>1782.626563794805</v>
       </c>
       <c r="F5" t="n">
-        <v>1347.576085294125</v>
+        <v>1339.938175369858</v>
       </c>
       <c r="G5" t="n">
-        <v>445.2138362551852</v>
+        <v>442.688388424947</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>232.5448697555975</v>
       </c>
       <c r="E6" t="n">
-        <v>712.1961573748231</v>
+        <v>708.1533475057333</v>
       </c>
       <c r="F6" t="n">
-        <v>712.1961573748231</v>
+        <v>708.1533475057333</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>712.1855044065674</v>
+        <v>566.5142057022945</v>
       </c>
       <c r="F7" t="n">
-        <v>712.1855044065674</v>
+        <v>566.5142057022945</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
